--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/47.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/47.xlsx
@@ -479,13 +479,13 @@
         <v>-10.0548463800702</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.005150454435116</v>
+        <v>-9.019316326109864</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.715788278155818</v>
+        <v>-1.750404326869342</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.650070925710785</v>
+        <v>-7.743222660429666</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.243896717789495</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.672779345546095</v>
+        <v>-9.682192711289296</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.733187948632472</v>
+        <v>-1.761166199805241</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.540252689474387</v>
+        <v>-7.613635046902261</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.291844016993123</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.20491599454805</v>
+        <v>-10.22640046351132</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.729587565350998</v>
+        <v>-1.760236646303478</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.350872528868819</v>
+        <v>-7.427174469830399</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.281484337052913</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.85873250616101</v>
+        <v>-10.87745449922468</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.732886825667113</v>
+        <v>-1.759883154126752</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.936095282540095</v>
+        <v>-7.00401814968297</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.229887528645142</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.45839925322059</v>
+        <v>-11.48766055007185</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.788437466624556</v>
+        <v>-1.817175071362145</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.69068006577194</v>
+        <v>-6.755630980169744</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.17900464690553</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.26043372530473</v>
+        <v>-12.28638266953703</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.568159471312515</v>
+        <v>-1.598834736870679</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.317745819325373</v>
+        <v>-6.382068303186774</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.155861700511375</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.8991940886497</v>
+        <v>-12.92713306291394</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.474719705931116</v>
+        <v>-1.503077633886295</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.633712272753711</v>
+        <v>-5.708155106711766</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.198325027803712</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.51010712385032</v>
+        <v>-13.53944697451863</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.360253702185905</v>
+        <v>-1.39290590547317</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.256326643340957</v>
+        <v>-5.317572436034552</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.329123290188022</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.14123467463857</v>
+        <v>-14.17640060007145</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.283886299710117</v>
+        <v>-1.312388242996555</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.845634195498852</v>
+        <v>-4.914957939045792</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.57020220427405</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.98724619196807</v>
+        <v>-15.02423194749594</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.179357353821776</v>
+        <v>-1.202098683857854</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.278069775007186</v>
+        <v>-4.34507618095114</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.9360285154885517</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.7714882244903</v>
+        <v>-15.80751824191073</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9370188282214268</v>
+        <v>-0.9634129107503465</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.764615842160373</v>
+        <v>-3.82391088173055</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.4347852935829296</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.53708681776591</v>
+        <v>-16.57629826477688</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8506358140717182</v>
+        <v>-0.8777237886512494</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.299904552793306</v>
+        <v>-3.352862917788088</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.07767449439652888</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.27669718990071</v>
+        <v>-17.31268793041261</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6607188690496398</v>
+        <v>-0.6894433814843869</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.709520248448511</v>
+        <v>-2.763656920699048</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1361458913047341</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.03326209421553</v>
+        <v>-18.07366494078509</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4834621808755106</v>
+        <v>-0.5113487859283872</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.430431628771436</v>
+        <v>-2.485366931495319</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2138615550913039</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.90016892688042</v>
+        <v>-18.94237851124214</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3232909479098339</v>
+        <v>-0.3498814149813795</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.856674549035633</v>
+        <v>-1.916519465325162</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1686541898806955</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.73442355625805</v>
+        <v>-19.77082015815805</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0817772373885131</v>
+        <v>-0.1042959982762819</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.588125233146148</v>
+        <v>-1.643715151012116</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.01865394674323422</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.46684625413273</v>
+        <v>-20.51218489887362</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01891566376720209</v>
+        <v>0.00459268445835377</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.144008136149116</v>
+        <v>-1.199951546191811</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.2184967544445475</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.17311053092964</v>
+        <v>-21.22347661996176</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2991694983971903</v>
+        <v>0.2793084749862919</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.7585314635801753</v>
+        <v>-0.8176039340020433</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.522685156481975</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.82580110449821</v>
+        <v>-21.87561731681098</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4524149031595939</v>
+        <v>0.4333786948277242</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5266929648588901</v>
+        <v>-0.5829244055641035</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.8761330594574706</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.44458261370671</v>
+        <v>-22.49356091863761</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6394515415564925</v>
+        <v>0.6217769327201623</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1746802183534013</v>
+        <v>-0.2347346114883987</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.26233446069939</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.89508875449051</v>
+        <v>-22.94465621304928</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8040872497911978</v>
+        <v>0.7894762398198316</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.06847545770131942</v>
+        <v>-0.1293808505210291</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.667617591468815</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.34200760429566</v>
+        <v>-23.39325087761818</v>
       </c>
       <c r="F23" t="n">
-        <v>0.881030713592022</v>
+        <v>0.8680431491730297</v>
       </c>
       <c r="G23" t="n">
-        <v>0.08488777778665975</v>
+        <v>0.01624483398748997</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.08085097406481</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.84209429594107</v>
+        <v>-23.88859815563488</v>
       </c>
       <c r="F24" t="n">
-        <v>1.025046044851009</v>
+        <v>1.014991156268563</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01044494382860532</v>
+        <v>-0.04272289801164424</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.490492919851704</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.09901764690711</v>
+        <v>-24.14370167650592</v>
       </c>
       <c r="F25" t="n">
-        <v>1.082285592875035</v>
+        <v>1.071968858235755</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2162952214090643</v>
+        <v>0.1540020444881317</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.891656797740074</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.36015671938818</v>
+        <v>-24.40879462444519</v>
       </c>
       <c r="F26" t="n">
-        <v>1.220867618454706</v>
+        <v>1.210996022112044</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1109414604416946</v>
+        <v>0.04921125254295621</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.279457815889419</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.41335074583411</v>
+        <v>-24.457118314234</v>
       </c>
       <c r="F27" t="n">
-        <v>1.190414922044851</v>
+        <v>1.180333848856722</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.09382215600290109</v>
+        <v>-0.1566783019460279</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.650188539947035</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.49237588578677</v>
+        <v>-24.53927251456583</v>
       </c>
       <c r="F28" t="n">
-        <v>1.11667907244025</v>
+        <v>1.107095506760106</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.45835114402508</v>
+        <v>-0.5230925815774154</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.000457302970657</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.29715655811379</v>
+        <v>-24.34737863181465</v>
       </c>
       <c r="F29" t="n">
-        <v>1.139381125567802</v>
+        <v>1.124311884996976</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5196754905357249</v>
+        <v>-0.5781849919353987</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.324509473816429</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.04067834544438</v>
+        <v>-24.08936861971275</v>
       </c>
       <c r="F30" t="n">
-        <v>1.024168860560613</v>
+        <v>1.007292882197628</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.8394811720505676</v>
+        <v>-0.9006745955327952</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.620291097886322</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.81068586142377</v>
+        <v>-23.8626230267969</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9590477462258676</v>
+        <v>0.9413731373895374</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.072236131970774</v>
+        <v>-1.12461843564052</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.885836946672405</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.46652849662332</v>
+        <v>-23.51627924742188</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9299828339172357</v>
+        <v>0.9129235633144667</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.319222425079936</v>
+        <v>-1.373123435879322</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.118363629938159</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.12656066873222</v>
+        <v>-23.17690057315866</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8969509538475609</v>
+        <v>0.8772863149792883</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.608811071636075</v>
+        <v>-1.66019836028985</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.313956246595341</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.66470350138465</v>
+        <v>-22.72141935729501</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8232805657571682</v>
+        <v>0.8069675564163776</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.859934532443223</v>
+        <v>-1.902707085827142</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.468534491321247</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.31454986188269</v>
+        <v>-22.36482430479492</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7424617803151933</v>
+        <v>0.7219985109735754</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.165247034712274</v>
+        <v>-2.194717808409</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.578404930467736</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.73264936977933</v>
+        <v>-21.78638018064177</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7919899619654429</v>
+        <v>0.770767339059005</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.483455455280426</v>
+        <v>-2.502949894211757</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.641984478950945</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.27918436855331</v>
+        <v>-21.33728800856489</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8127674465752622</v>
+        <v>0.7899606550249755</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.662531973549556</v>
+        <v>-2.682196612417828</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.657640921056275</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.7977673007602</v>
+        <v>-20.85109225023455</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9080270420516611</v>
+        <v>0.8866604038139642</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.791556618054766</v>
+        <v>-2.812556671812894</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.623903131556669</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.29347797990259</v>
+        <v>-20.34840019032363</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9298519108888185</v>
+        <v>0.9075688114522007</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.866287482675339</v>
+        <v>-2.880833031132496</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.541855232517737</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.63154424052776</v>
+        <v>-19.68917655763704</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9450389821852208</v>
+        <v>0.9244578821180274</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.995482327117491</v>
+        <v>-3.006113277024973</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.414369744721508</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.0984649457212</v>
+        <v>-19.15871572339883</v>
       </c>
       <c r="F41" t="n">
-        <v>1.016064725101585</v>
+        <v>0.9941351178416935</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.155496452449067</v>
+        <v>-3.163194726520002</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.247605387484515</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.34395553295253</v>
+        <v>-18.40076303498278</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9894218888186721</v>
+        <v>0.9695084961964068</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.370747003469885</v>
+        <v>-3.376900385805497</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.047368925480444</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.81284008357223</v>
+        <v>-17.87324796888395</v>
       </c>
       <c r="F43" t="n">
-        <v>1.105498245813415</v>
+        <v>1.082665269657445</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.401487730542259</v>
+        <v>-3.410063188903589</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.819696334292648</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.26441660983517</v>
+        <v>-17.32067423514606</v>
       </c>
       <c r="F44" t="n">
-        <v>1.038897701257555</v>
+        <v>1.023514245418527</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.54212524766808</v>
+        <v>-3.554052335556892</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.569384900685951</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.60037500970282</v>
+        <v>-16.66327043255447</v>
       </c>
       <c r="F45" t="n">
-        <v>1.06783169053777</v>
+        <v>1.048716928388849</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.726569610102317</v>
+        <v>-3.733822745876633</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.304088226135178</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.12549100102773</v>
+        <v>-16.18995750022039</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8780980377554753</v>
+        <v>0.8695880409083534</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.892291979472885</v>
+        <v>-3.894059440356518</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.029604433290465</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.53752877270865</v>
+        <v>-15.59450647467585</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9606319148697164</v>
+        <v>0.9493594421229903</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.849362318454865</v>
+        <v>-3.859613591579937</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.750019457205604</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.8687477589476</v>
+        <v>-14.93622548779386</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9501057033849687</v>
+        <v>0.9342116477351132</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.989240482015867</v>
+        <v>-4.004702491671945</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.46815559569464</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.37093912799665</v>
+        <v>-14.43369053551705</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8611958747868069</v>
+        <v>0.851874155163498</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.100904732952948</v>
+        <v>-4.110789421598452</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.184301486791514</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.85283742764103</v>
+        <v>-13.91160877509754</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8518479705578146</v>
+        <v>0.8453018191369516</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.162896786908521</v>
+        <v>-4.180519026533485</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.902206163608784</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.37710241928123</v>
+        <v>-13.42877773859752</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9665758203598601</v>
+        <v>0.9561281626921627</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.249410724086648</v>
+        <v>-4.271916392671574</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.623606846802784</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.7235477537251</v>
+        <v>-12.78531723853237</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8514159245640376</v>
+        <v>0.8465586802097572</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.351727070794737</v>
+        <v>-4.377780753449771</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.348859202415905</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.3321533602717</v>
+        <v>-12.38668280160749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8648879041881737</v>
+        <v>0.8604888904333537</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.536236894743182</v>
+        <v>-4.563887838344908</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.077841892429845</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.6883000911213</v>
+        <v>-11.75187631372072</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8471609261404767</v>
+        <v>0.8401696364229949</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.730984899513857</v>
+        <v>-4.75322872204195</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.809475527267979</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.31096683091991</v>
+        <v>-11.37138780853448</v>
       </c>
       <c r="F55" t="n">
-        <v>0.811772431559291</v>
+        <v>0.8011676662574929</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.949364510913848</v>
+        <v>-4.973650732685249</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.544590026684739</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.92408928194691</v>
+        <v>-10.97966610751003</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7322366917958052</v>
+        <v>0.7230589875037552</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.141821362687221</v>
+        <v>-5.16949849089463</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.285228298469195</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.36372562801819</v>
+        <v>-10.41982614569499</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7157272979123886</v>
+        <v>0.7051487172162739</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.224721824281031</v>
+        <v>-5.251953814191821</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.031489971260307</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.13451868216809</v>
+        <v>-10.18464910974906</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6231123476100184</v>
+        <v>0.6142095816776447</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.358328774780845</v>
+        <v>-5.386045179896779</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.7836732123264124</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.630124622887752</v>
+        <v>-9.679888465989153</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6545862436415278</v>
+        <v>0.6461024314000894</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.57029315778839</v>
+        <v>-5.598899839497562</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5423093186770237</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.505813207405563</v>
+        <v>-9.546346977003546</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6344502818709532</v>
+        <v>0.629632314425198</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.625647414203208</v>
+        <v>-5.653049604050941</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3080433213597192</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.131870853640184</v>
+        <v>-9.167678301912304</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6631747943057001</v>
+        <v>0.6606087029487219</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.634942949220833</v>
+        <v>-5.666128814589825</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.08477952499782787</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.858150078128215</v>
+        <v>-8.889414497314258</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6230207014901263</v>
+        <v>0.6215412712690113</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.706007969045722</v>
+        <v>-5.747301092208526</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1265683813248946</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.51692538916431</v>
+        <v>-8.558886219772042</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5828142394631856</v>
+        <v>0.582604762617718</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.695887618949069</v>
+        <v>-5.731721251826873</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.3246653930139909</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.200929567776409</v>
+        <v>-8.243309352075077</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4760072328803843</v>
+        <v>0.4762559866343771</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.616548263728208</v>
+        <v>-5.652866311811157</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.5078500101093529</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.099071451667781</v>
+        <v>-8.137392622085512</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3357886694454981</v>
+        <v>0.3409601290679799</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.636422379441949</v>
+        <v>-5.678016625570113</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.6751009478202207</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.896376419072177</v>
+        <v>-7.936386496556493</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2914188551148885</v>
+        <v>0.2941551464088092</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.615919833191805</v>
+        <v>-5.66131084714407</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.8233244151510217</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.76858245103409</v>
+        <v>-7.804651745363045</v>
       </c>
       <c r="F67" t="n">
-        <v>0.192650522476907</v>
+        <v>0.1969971670203601</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.566378559238714</v>
+        <v>-5.612398003727381</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.9507931765837199</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.616973584126901</v>
+        <v>-7.656996753914058</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1385793117405784</v>
+        <v>0.1417738336339595</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.509715072539723</v>
+        <v>-5.556074916902276</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>1.055772432695172</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.541941596540969</v>
+        <v>-7.587777748789852</v>
       </c>
       <c r="F69" t="n">
-        <v>0.134965836156262</v>
+        <v>0.1357120974182403</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.41631458406685</v>
+        <v>-5.463486151205589</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>1.136225357512939</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.548225901904997</v>
+        <v>-7.594651207781759</v>
       </c>
       <c r="F70" t="n">
-        <v>0.02592004578752554</v>
+        <v>0.02627353796425214</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.323660356855955</v>
+        <v>-5.367152986896168</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>1.190077100082034</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.630367009933988</v>
+        <v>-7.670730579595029</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02928476761784914</v>
+        <v>0.02828975260187796</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.156916787863731</v>
+        <v>-5.197607665095816</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>1.214646234513431</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.628586456747512</v>
+        <v>-7.675103408744165</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.04062812955696807</v>
+        <v>-0.04108636015642848</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.084018845641</v>
+        <v>-5.122745877446826</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>1.207584224059851</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.854140650104769</v>
+        <v>-7.897292880271098</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.07202347177142718</v>
+        <v>-0.07424916325452061</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.815155314483314</v>
+        <v>-4.854157284648816</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>1.166185944460377</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.97702500457721</v>
+        <v>-8.020465265406058</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1394881083148416</v>
+        <v>-0.1342904640866764</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.678982272626521</v>
+        <v>-4.716465535662383</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>1.088327270253816</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.332886888118166</v>
+        <v>-8.372163796643344</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.2124122351432558</v>
+        <v>-0.2143237113581478</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.441265329929301</v>
+        <v>-4.475554071071782</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.9720985266867982</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.589194900850638</v>
+        <v>-8.630579670133333</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.2091260671299826</v>
+        <v>-0.2077120984230761</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.163852525015967</v>
+        <v>-4.187025901045822</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.8167174991196691</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.112428783920219</v>
+        <v>-9.152648338250001</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2731605203288648</v>
+        <v>-0.2737889508652676</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.935967901752883</v>
+        <v>-3.96749416699576</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.62451459352938</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.565540292969517</v>
+        <v>-9.604385155500918</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.2146379266263492</v>
+        <v>-0.2193118787408455</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.85448140886598</v>
+        <v>-3.883768890322921</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.3967443199862028</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.01328395785371</v>
+        <v>-10.04813566801838</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.283948577870447</v>
+        <v>-0.2870252690382527</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.713634414894691</v>
+        <v>-3.740879497108323</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1364122542556839</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.60754358383965</v>
+        <v>-10.64676812315346</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.336330881540193</v>
+        <v>-0.3425497253900129</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.384572475270748</v>
+        <v>-3.412131772752582</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1526027298516046</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.2831325950784</v>
+        <v>-11.32581350234243</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3494493689876026</v>
+        <v>-0.3563751971908757</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.218195490758093</v>
+        <v>-3.246016634296761</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4658426797080871</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.13621395594243</v>
+        <v>-12.17581817203865</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.4097525158765928</v>
+        <v>-0.4182363281180314</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.881526923183108</v>
+        <v>-2.90786863650066</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.7955333664328863</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.05647192268736</v>
+        <v>-13.09692713846829</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3833977102561983</v>
+        <v>-0.3945523522773489</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.7493339413902</v>
+        <v>-2.774628270480414</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.13561990915932</v>
       </c>
       <c r="E84" t="n">
-        <v>-13.99704914344264</v>
+        <v>-14.0457001408025</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4412264119081023</v>
+        <v>-0.4503386546859436</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.466527107706075</v>
+        <v>-2.493274682411721</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.481698717440576</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.22417759649478</v>
+        <v>-15.26967334886978</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4842346267431724</v>
+        <v>-0.4995395287651502</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.263701152082054</v>
+        <v>-2.290474911393384</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.829966860652874</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.2924047699569</v>
+        <v>-16.33634253829373</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5799524528190317</v>
+        <v>-0.5953620932637433</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.016806505092784</v>
+        <v>-2.049720554436884</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.178135792753762</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.45650687712897</v>
+        <v>-17.50742284288044</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5126187393040346</v>
+        <v>-0.5265882264361563</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.955272681736672</v>
+        <v>-1.983722255811742</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.523027304964029</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.84134521021254</v>
+        <v>-18.89135780706794</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6663747438772655</v>
+        <v>-0.6807500923974807</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.927503907409371</v>
+        <v>-1.95753765012829</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.861543667131528</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.3724245660382</v>
+        <v>-20.42849889910931</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.651344780214964</v>
+        <v>-0.6643192523311146</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.914987665892681</v>
+        <v>-1.94464173182919</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.195222727431432</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.00537513027533</v>
+        <v>-22.06334784725849</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6784458470973369</v>
+        <v>-0.6959109790881995</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.928760768482176</v>
+        <v>-1.960077556879585</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.524443058990894</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.71938014140558</v>
+        <v>-23.77656732021824</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8282348839095249</v>
+        <v>-0.8405285562779057</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.975447920415772</v>
+        <v>-2.005520940043216</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.849749201218106</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.45085028452669</v>
+        <v>-25.50856115545302</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8740579438555661</v>
+        <v>-0.8880405232905295</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.034664406168899</v>
+        <v>-2.070196916081343</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.171323503060607</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.46220767779823</v>
+        <v>-27.52402953181685</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.049599540357429</v>
+        <v>-1.063817781243544</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.230931118069214</v>
+        <v>-2.26275850627745</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.485410587482271</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.51847166981688</v>
+        <v>-29.57616944844037</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.075208084715845</v>
+        <v>-1.090853386611708</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.295554724895974</v>
+        <v>-2.323572252977268</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.793732575449398</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.72004713107585</v>
+        <v>-31.78192135430585</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.299086463309361</v>
+        <v>-1.321002978266411</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.507623846326253</v>
+        <v>-2.535733020527439</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.096255614562327</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.98094381651069</v>
+        <v>-34.0396235178473</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.432549398477917</v>
+        <v>-1.451664160626837</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.729760948641819</v>
+        <v>-2.757582092180487</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.389261179957734</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.19825622578541</v>
+        <v>-36.25663480415667</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.617006853214995</v>
+        <v>-1.629470725520318</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.80333969061232</v>
+        <v>-2.837890277811635</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.671511125384248</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.53866246637805</v>
+        <v>-38.59639952191006</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.890897828663905</v>
+        <v>-1.90193463995948</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.072962575334826</v>
+        <v>-3.104515025183386</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.933210631911523</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.84963721018248</v>
+        <v>-40.90305380577672</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.909515083304839</v>
+        <v>-1.917920341729227</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.338448292359347</v>
+        <v>-3.355677762899059</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.177785639291818</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.17666311727088</v>
+        <v>-43.23222685053116</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.252101371764285</v>
+        <v>-2.258307123311263</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.368900988769202</v>
+        <v>-3.401867407324668</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.390186730778551</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.52948086095746</v>
+        <v>-45.58264870279771</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.285722405461838</v>
+        <v>-2.292608956756585</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.638694073428651</v>
+        <v>-3.665768955705341</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.586359681783181</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.07410084127535</v>
+        <v>-48.12015956267253</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.560752411257977</v>
+        <v>-2.560909518892078</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.649927269266852</v>
+        <v>-3.683561395267247</v>
       </c>
     </row>
   </sheetData>
